--- a/Staging/DataModel/OrderDataModel.xlsx
+++ b/Staging/DataModel/OrderDataModel.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t>ColumnName</t>
   </si>
@@ -539,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,105 +907,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H2:I11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
